--- a/sc/qa/uitest/data/autofilter/tdf140968.xlsx
+++ b/sc/qa/uitest/data/autofilter/tdf140968.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Munka1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Munka1!$A$1:$B$7</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Munka1!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t xml:space="preserve">Values</t>
   </si>
@@ -120,15 +120,15 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,11 +312,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,15 +386,15 @@
     <cellStyle name="Error 9" xfId="25"/>
     <cellStyle name="Footnote 10" xfId="26"/>
     <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading" xfId="28"/>
-    <cellStyle name="Heading 1 13" xfId="29"/>
-    <cellStyle name="Heading 12" xfId="30"/>
-    <cellStyle name="Heading 2 14" xfId="31"/>
+    <cellStyle name="Heading 1 13" xfId="28"/>
+    <cellStyle name="Heading 12" xfId="29"/>
+    <cellStyle name="Heading 2 14" xfId="30"/>
+    <cellStyle name="Heading 3" xfId="31"/>
     <cellStyle name="Hyperlink 15" xfId="32"/>
     <cellStyle name="Neutral 16" xfId="33"/>
     <cellStyle name="Note 17" xfId="34"/>
-    <cellStyle name="Result" xfId="35"/>
-    <cellStyle name="Result 18" xfId="36"/>
+    <cellStyle name="Result 18" xfId="35"/>
+    <cellStyle name="Result 4" xfId="36"/>
     <cellStyle name="Status 19" xfId="37"/>
     <cellStyle name="Text 20" xfId="38"/>
     <cellStyle name="Warning 21" xfId="39"/>
@@ -471,19 +471,19 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0.364849537037037</v>
       </c>
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.0458680555555556</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.0458796296296296</v>
       </c>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.0458912037037037</v>
       </c>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.516030092592593</v>
       </c>
@@ -539,11 +539,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B7">
+  <autoFilter ref="A1:B8">
     <filterColumn colId="0">
       <filters>
         <filter val="0.046"/>
+        <filter val="0.500"/>
         <filter val="0.516"/>
       </filters>
     </filterColumn>
